--- a/static/a.xlsx
+++ b/static/a.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JJM\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\jjm-test\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80F65957-95D2-498B-A7F9-C212C59FD58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C50091-BD22-4E5D-872B-56E3DA818A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{0529A90C-9CC1-4A5B-9D20-17B984531C3A}"/>
+    <workbookView xWindow="5683" yWindow="2006" windowWidth="18514" windowHeight="11280" xr2:uid="{0529A90C-9CC1-4A5B-9D20-17B984531C3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -392,17 +392,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5416D037-D672-477C-96EC-1AE0017CF93C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
